--- a/initial_claims/CO/CO_pua_ui_data.xlsx
+++ b/initial_claims/CO/CO_pua_ui_data.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/initial_claims/CO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB3D194F-84AF-3B4E-9EFB-AAF1F89C14E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12C4CBC9-D62D-1E47-88AF-AFCB40ABD9F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27960" windowHeight="15620" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="16220" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PUA County-Level Initial Claims" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="75">
   <si>
     <t>Adams</t>
   </si>
@@ -906,13 +898,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BQ26"/>
+  <dimension ref="A1:BQ29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2912,97 +2904,688 @@
         <v>2804</v>
       </c>
     </row>
+    <row r="11" spans="1:69" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44002</v>
+      </c>
+      <c r="C11" s="23">
+        <v>10385</v>
+      </c>
+      <c r="D11" s="23">
+        <v>731</v>
+      </c>
+      <c r="E11" s="23">
+        <v>37</v>
+      </c>
+      <c r="F11" s="23">
+        <v>948</v>
+      </c>
+      <c r="G11" s="23">
+        <v>26</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="23">
+        <v>16</v>
+      </c>
+      <c r="J11" s="23">
+        <v>453</v>
+      </c>
+      <c r="K11" s="23">
+        <v>98</v>
+      </c>
+      <c r="L11" s="23">
+        <v>32</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="23">
+        <v>15</v>
+      </c>
+      <c r="O11" s="23">
+        <v>11</v>
+      </c>
+      <c r="P11" s="23">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>10</v>
+      </c>
+      <c r="R11" s="23">
+        <v>10</v>
+      </c>
+      <c r="S11" s="23">
+        <v>55</v>
+      </c>
+      <c r="T11" s="23">
+        <v>1103</v>
+      </c>
+      <c r="U11" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="V11" s="23">
+        <v>398</v>
+      </c>
+      <c r="W11" s="23">
+        <v>39</v>
+      </c>
+      <c r="X11" s="23">
+        <v>29</v>
+      </c>
+      <c r="Y11" s="23">
+        <v>1247</v>
+      </c>
+      <c r="Z11" s="23">
+        <v>104</v>
+      </c>
+      <c r="AA11" s="23">
+        <v>77</v>
+      </c>
+      <c r="AB11" s="23">
+        <v>10</v>
+      </c>
+      <c r="AC11" s="23">
+        <v>15</v>
+      </c>
+      <c r="AD11" s="23">
+        <v>29</v>
+      </c>
+      <c r="AE11" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF11" s="23">
+        <v>12</v>
+      </c>
+      <c r="AG11" s="23">
+        <v>13</v>
+      </c>
+      <c r="AH11" s="23">
+        <v>902</v>
+      </c>
+      <c r="AI11" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ11" s="23">
+        <v>6</v>
+      </c>
+      <c r="AK11" s="23">
+        <v>17</v>
+      </c>
+      <c r="AL11" s="23">
+        <v>84</v>
+      </c>
+      <c r="AM11" s="23">
+        <v>435</v>
+      </c>
+      <c r="AN11" s="23">
+        <v>16</v>
+      </c>
+      <c r="AO11" s="23">
+        <v>9</v>
+      </c>
+      <c r="AP11" s="23">
+        <v>31</v>
+      </c>
+      <c r="AQ11" s="23">
+        <v>237</v>
+      </c>
+      <c r="AR11" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS11" s="23">
+        <v>14</v>
+      </c>
+      <c r="AT11" s="23">
+        <v>43</v>
+      </c>
+      <c r="AU11" s="23">
+        <v>55</v>
+      </c>
+      <c r="AV11" s="23">
+        <v>26</v>
+      </c>
+      <c r="AW11" s="23">
+        <v>40</v>
+      </c>
+      <c r="AX11" s="23">
+        <v>9</v>
+      </c>
+      <c r="AY11" s="23">
+        <v>32</v>
+      </c>
+      <c r="AZ11" s="23">
+        <v>10</v>
+      </c>
+      <c r="BA11" s="23">
+        <v>33</v>
+      </c>
+      <c r="BB11" s="23">
+        <v>15</v>
+      </c>
+      <c r="BC11" s="23">
+        <v>523</v>
+      </c>
+      <c r="BD11" s="23">
+        <v>9</v>
+      </c>
+      <c r="BE11" s="23">
+        <v>28</v>
+      </c>
+      <c r="BF11" s="23">
+        <v>24</v>
+      </c>
+      <c r="BG11" s="23">
+        <v>12</v>
+      </c>
+      <c r="BH11" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI11" s="23">
+        <v>9</v>
+      </c>
+      <c r="BJ11" s="23">
+        <v>14</v>
+      </c>
+      <c r="BK11" s="23">
+        <v>33</v>
+      </c>
+      <c r="BL11" s="23">
+        <v>43</v>
+      </c>
+      <c r="BM11" s="23">
+        <v>16</v>
+      </c>
+      <c r="BN11" s="23">
+        <v>341</v>
+      </c>
+      <c r="BO11" s="23">
+        <v>10</v>
+      </c>
+      <c r="BP11" s="23">
+        <v>1769</v>
+      </c>
+    </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="C12" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="A12" s="2">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44009</v>
+      </c>
+      <c r="C12" s="23">
+        <v>6173</v>
+      </c>
+      <c r="D12" s="23">
+        <v>488</v>
+      </c>
+      <c r="E12" s="23">
+        <v>27</v>
+      </c>
+      <c r="F12" s="23">
+        <v>572</v>
+      </c>
+      <c r="G12" s="23">
+        <v>12</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="23">
+        <v>13</v>
+      </c>
+      <c r="J12" s="23">
+        <v>279</v>
+      </c>
+      <c r="K12" s="23">
+        <v>44</v>
+      </c>
+      <c r="L12" s="23">
+        <v>13</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12" s="23">
+        <v>7</v>
+      </c>
+      <c r="O12" s="23">
+        <v>13</v>
+      </c>
+      <c r="P12" s="23">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="R12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="S12" s="23">
+        <v>39</v>
+      </c>
+      <c r="T12" s="23">
+        <v>815</v>
+      </c>
+      <c r="U12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="V12" s="23">
+        <v>180</v>
+      </c>
+      <c r="W12" s="23">
+        <v>29</v>
+      </c>
+      <c r="X12" s="23">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="23">
+        <v>872</v>
+      </c>
+      <c r="Z12" s="23">
+        <v>59</v>
+      </c>
+      <c r="AA12" s="23">
+        <v>52</v>
+      </c>
+      <c r="AB12" s="23">
+        <v>6</v>
+      </c>
+      <c r="AC12" s="23">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="23">
+        <v>10</v>
+      </c>
+      <c r="AE12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF12" s="23">
+        <v>11</v>
+      </c>
+      <c r="AG12" s="23">
+        <v>7</v>
+      </c>
+      <c r="AH12" s="23">
+        <v>524</v>
+      </c>
+      <c r="AI12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK12" s="23">
+        <v>7</v>
+      </c>
+      <c r="AL12" s="23">
+        <v>38</v>
+      </c>
+      <c r="AM12" s="23">
+        <v>249</v>
+      </c>
+      <c r="AN12" s="23">
+        <v>13</v>
+      </c>
+      <c r="AO12" s="23">
+        <v>8</v>
+      </c>
+      <c r="AP12" s="23">
+        <v>22</v>
+      </c>
+      <c r="AQ12" s="23">
+        <v>155</v>
+      </c>
+      <c r="AR12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS12" s="23">
+        <v>6</v>
+      </c>
+      <c r="AT12" s="23">
+        <v>30</v>
+      </c>
+      <c r="AU12" s="23">
+        <v>38</v>
+      </c>
+      <c r="AV12" s="23">
+        <v>29</v>
+      </c>
+      <c r="AW12" s="23">
+        <v>30</v>
+      </c>
+      <c r="AX12" s="23">
+        <v>8</v>
+      </c>
+      <c r="AY12" s="23">
+        <v>22</v>
+      </c>
+      <c r="AZ12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA12" s="23">
+        <v>26</v>
+      </c>
+      <c r="BB12" s="23">
+        <v>14</v>
+      </c>
+      <c r="BC12" s="23">
+        <v>367</v>
+      </c>
+      <c r="BD12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="BE12" s="23">
+        <v>16</v>
+      </c>
+      <c r="BF12" s="23">
+        <v>14</v>
+      </c>
+      <c r="BG12" s="23">
+        <v>14</v>
+      </c>
+      <c r="BH12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI12" s="23">
+        <v>9</v>
+      </c>
+      <c r="BJ12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="BK12" s="23">
+        <v>19</v>
+      </c>
+      <c r="BL12" s="23">
+        <v>26</v>
+      </c>
+      <c r="BM12" s="23">
+        <v>6</v>
+      </c>
+      <c r="BN12" s="23">
+        <v>200</v>
+      </c>
+      <c r="BO12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP12" s="23">
+        <v>676</v>
+      </c>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="2">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44016</v>
+      </c>
+      <c r="C13" s="23">
+        <v>5900</v>
+      </c>
+      <c r="D13" s="23">
+        <v>471</v>
+      </c>
+      <c r="E13" s="23">
+        <v>33</v>
+      </c>
+      <c r="F13" s="23">
+        <v>594</v>
+      </c>
+      <c r="G13" s="23">
+        <v>15</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="23">
+        <v>12</v>
+      </c>
+      <c r="J13" s="23">
+        <v>214</v>
+      </c>
+      <c r="K13" s="23">
+        <v>39</v>
+      </c>
+      <c r="L13" s="23">
+        <v>18</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" s="23">
+        <v>9</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="R13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="S13" s="23">
+        <v>45</v>
+      </c>
+      <c r="T13" s="23">
+        <v>799</v>
+      </c>
+      <c r="U13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="V13" s="23">
+        <v>165</v>
+      </c>
+      <c r="W13" s="23">
+        <v>25</v>
+      </c>
+      <c r="X13" s="23">
+        <v>16</v>
+      </c>
+      <c r="Y13" s="23">
+        <v>782</v>
+      </c>
+      <c r="Z13" s="23">
+        <v>69</v>
+      </c>
+      <c r="AA13" s="23">
+        <v>42</v>
+      </c>
+      <c r="AB13" s="23">
+        <v>8</v>
+      </c>
+      <c r="AC13" s="23">
+        <v>7</v>
+      </c>
+      <c r="AD13" s="23">
+        <v>14</v>
+      </c>
+      <c r="AE13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF13" s="23">
+        <v>7</v>
+      </c>
+      <c r="AG13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH13" s="23">
+        <v>471</v>
+      </c>
+      <c r="AI13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK13" s="23">
+        <v>20</v>
+      </c>
+      <c r="AL13" s="23">
+        <v>38</v>
+      </c>
+      <c r="AM13" s="23">
+        <v>215</v>
+      </c>
+      <c r="AN13" s="23">
+        <v>22</v>
+      </c>
+      <c r="AO13" s="23">
+        <v>7</v>
+      </c>
+      <c r="AP13" s="23">
+        <v>14</v>
+      </c>
+      <c r="AQ13" s="23">
+        <v>133</v>
+      </c>
+      <c r="AR13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS13" s="23">
+        <v>9</v>
+      </c>
+      <c r="AT13" s="23">
+        <v>19</v>
+      </c>
+      <c r="AU13" s="23">
+        <v>41</v>
+      </c>
+      <c r="AV13" s="23">
+        <v>22</v>
+      </c>
+      <c r="AW13" s="23">
+        <v>25</v>
+      </c>
+      <c r="AX13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY13" s="23">
+        <v>16</v>
+      </c>
+      <c r="AZ13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA13" s="23">
+        <v>12</v>
+      </c>
+      <c r="BB13" s="23">
+        <v>12</v>
+      </c>
+      <c r="BC13" s="23">
+        <v>303</v>
+      </c>
+      <c r="BD13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="BE13" s="23">
+        <v>12</v>
+      </c>
+      <c r="BF13" s="23">
+        <v>10</v>
+      </c>
+      <c r="BG13" s="23">
+        <v>10</v>
+      </c>
+      <c r="BH13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="BK13" s="23">
+        <v>19</v>
+      </c>
+      <c r="BL13" s="23">
+        <v>18</v>
+      </c>
+      <c r="BM13" s="23">
+        <v>16</v>
+      </c>
+      <c r="BN13" s="23">
+        <v>197</v>
+      </c>
+      <c r="BO13" s="23">
+        <v>7</v>
+      </c>
+      <c r="BP13" s="23">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:69" x14ac:dyDescent="0.15">
+      <c r="C15" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:69" x14ac:dyDescent="0.15">
+      <c r="C16" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.15">
-      <c r="C14" s="14" t="s">
+    <row r="17" spans="3:69" x14ac:dyDescent="0.15">
+      <c r="C17" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
-    <row r="15" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="BP15" s="7"/>
-      <c r="BQ15" s="7"/>
+    <row r="18" spans="3:69" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="BP18" s="7"/>
+      <c r="BQ18" s="7"/>
     </row>
-    <row r="16" spans="1:69" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="25" t="s">
+    <row r="19" spans="3:69" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
-      <c r="BP16" s="7"/>
-      <c r="BQ16" s="7"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
+      <c r="BP19" s="7"/>
+      <c r="BQ19" s="7"/>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="30"/>
+    <row r="20" spans="3:69" x14ac:dyDescent="0.15">
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="30"/>
     </row>
-    <row r="18" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="31" t="s">
+    <row r="21" spans="3:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
-    </row>
-    <row r="19" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
-    </row>
-    <row r="20" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C21" s="31"/>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
@@ -3010,7 +3593,7 @@
       <c r="H21" s="32"/>
       <c r="I21" s="33"/>
     </row>
-    <row r="22" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:69" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="31"/>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
@@ -3019,7 +3602,7 @@
       <c r="H22" s="32"/>
       <c r="I22" s="33"/>
     </row>
-    <row r="23" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:69" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="31"/>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
@@ -3028,7 +3611,7 @@
       <c r="H23" s="32"/>
       <c r="I23" s="33"/>
     </row>
-    <row r="24" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:69" x14ac:dyDescent="0.15">
       <c r="C24" s="31"/>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
@@ -3037,21 +3620,48 @@
       <c r="H24" s="32"/>
       <c r="I24" s="33"/>
     </row>
-    <row r="25" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
+    <row r="25" spans="3:69" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="33"/>
     </row>
-    <row r="26" spans="3:9" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="3:69" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="33"/>
+    </row>
+    <row r="27" spans="3:69" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="33"/>
+    </row>
+    <row r="28" spans="3:69" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="36"/>
+    </row>
+    <row r="29" spans="3:69" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="C16:I17"/>
-    <mergeCell ref="C18:I25"/>
+    <mergeCell ref="C19:I20"/>
+    <mergeCell ref="C21:I28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
